--- a/testfiles/origin-data-rearrangement.xlsx
+++ b/testfiles/origin-data-rearrangement.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC70F02E-6B30-46F8-884C-A942971AEED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD7EA4A-6299-4A2B-957A-1C62C6219F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="近三年比較" sheetId="3" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,848 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="277">
+  <si>
+    <t>110年度系所評鑑</t>
+  </si>
+  <si>
+    <t>*近三年比較 (1.1.1.1 學士班繁星推薦入學錄取率)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>列印日期：2023/01/03</t>
+  </si>
+  <si>
+    <t>學院別</t>
+  </si>
+  <si>
+    <t>學系別</t>
+  </si>
+  <si>
+    <t>108-110年度平均</t>
+  </si>
+  <si>
+    <t>110年度</t>
+  </si>
+  <si>
+    <t>109年度</t>
+  </si>
+  <si>
+    <t>108年度</t>
+  </si>
+  <si>
+    <t>000 政治大學</t>
+  </si>
+  <si>
+    <t>000 政治大學（校加總 / 校均值）</t>
+  </si>
+  <si>
+    <t>9.54%</t>
+  </si>
+  <si>
+    <t>345.00 /8.82%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>337.00 /9.36%</t>
+  </si>
+  <si>
+    <t>346.00 /10.61%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 文學院</t>
+  </si>
+  <si>
+    <t>100 文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>11.62%</t>
+  </si>
+  <si>
+    <t>29.00 /10.18%</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>28.00 /12.67%</t>
+  </si>
+  <si>
+    <t>30.00 /12.35%</t>
+  </si>
+  <si>
+    <t>101 中國文學系</t>
+  </si>
+  <si>
+    <t>12.46%</t>
+  </si>
+  <si>
+    <t>12.07%</t>
+  </si>
+  <si>
+    <t>14.89%</t>
+  </si>
+  <si>
+    <t>11.02%</t>
+  </si>
+  <si>
+    <t>103 歷史學系</t>
+  </si>
+  <si>
+    <t>10.80%</t>
+  </si>
+  <si>
+    <t>7.95%</t>
+  </si>
+  <si>
+    <t>11.59%</t>
+  </si>
+  <si>
+    <t>14.29%</t>
+  </si>
+  <si>
+    <t>104 哲學系</t>
+  </si>
+  <si>
+    <t>11.06%</t>
+  </si>
+  <si>
+    <t>9.88%</t>
+  </si>
+  <si>
+    <t>10.34%</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>155 圖書資訊與檔案學研究所</t>
+  </si>
+  <si>
+    <t>156 宗教研究所</t>
+  </si>
+  <si>
+    <t>158 台灣史研究所</t>
+  </si>
+  <si>
+    <t>159 台灣文學研究所</t>
+  </si>
+  <si>
+    <t>161 華語文教學碩士學位學程</t>
+  </si>
+  <si>
+    <t>160 華語文教學博士學位學程</t>
+  </si>
+  <si>
+    <t>912 國文教學碩士在職專班</t>
+  </si>
+  <si>
+    <t>913 圖書資訊學數位碩士在職專班</t>
+  </si>
+  <si>
+    <t>700 理學院</t>
+  </si>
+  <si>
+    <t>700 理學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>18.71%</t>
+  </si>
+  <si>
+    <t>16.00 /20.25%</t>
+  </si>
+  <si>
+    <t>24.00 /16.33%</t>
+  </si>
+  <si>
+    <t>24.00 /20.69%</t>
+  </si>
+  <si>
+    <t>701 應用數學系</t>
+  </si>
+  <si>
+    <t>20.34%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>17.02%</t>
+  </si>
+  <si>
+    <t>26.67%</t>
+  </si>
+  <si>
+    <t>702 心理學系</t>
+  </si>
+  <si>
+    <t>20.69%</t>
+  </si>
+  <si>
+    <t>21.05%</t>
+  </si>
+  <si>
+    <t>21.62%</t>
+  </si>
+  <si>
+    <t>754 神經科學研究所</t>
+  </si>
+  <si>
+    <t>755 應用物理研究所</t>
+  </si>
+  <si>
+    <t>200 社會科學學院</t>
+  </si>
+  <si>
+    <t>200 社會科學學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>7.48%</t>
+  </si>
+  <si>
+    <t>76.00 /7.29%</t>
+  </si>
+  <si>
+    <t>78.00 /7.44%</t>
+  </si>
+  <si>
+    <t>79.00 /7.71%</t>
+  </si>
+  <si>
+    <t>202 政治學系</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>3.61%</t>
+  </si>
+  <si>
+    <t>4.12%</t>
+  </si>
+  <si>
+    <t>3.13%</t>
+  </si>
+  <si>
+    <t>204 社會學系</t>
+  </si>
+  <si>
+    <t>7.00%</t>
+  </si>
+  <si>
+    <t>8.24%</t>
+  </si>
+  <si>
+    <t>6.09%</t>
+  </si>
+  <si>
+    <t>205 財政學系</t>
+  </si>
+  <si>
+    <t>13.91%</t>
+  </si>
+  <si>
+    <t>13.73%</t>
+  </si>
+  <si>
+    <t>11.20%</t>
+  </si>
+  <si>
+    <t>18.67%</t>
+  </si>
+  <si>
+    <t>206 公共行政學系</t>
+  </si>
+  <si>
+    <t>5.19%</t>
+  </si>
+  <si>
+    <t>5.10%</t>
+  </si>
+  <si>
+    <t>5.03%</t>
+  </si>
+  <si>
+    <t>5.43%</t>
+  </si>
+  <si>
+    <t>207 地政學系</t>
+  </si>
+  <si>
+    <t>6.43%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>9.66%</t>
+  </si>
+  <si>
+    <t>208 經濟學系</t>
+  </si>
+  <si>
+    <t>11.24%</t>
+  </si>
+  <si>
+    <t>12.87%</t>
+  </si>
+  <si>
+    <t>9.09%</t>
+  </si>
+  <si>
+    <t>12.62%</t>
+  </si>
+  <si>
+    <t>209 民族學系</t>
+  </si>
+  <si>
+    <t>7.57%</t>
+  </si>
+  <si>
+    <t>7.61%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>6.06%</t>
+  </si>
+  <si>
+    <t>261 國家發展研究所</t>
+  </si>
+  <si>
+    <t>262 勞工研究所</t>
+  </si>
+  <si>
+    <t>264 社會工作研究所</t>
+  </si>
+  <si>
+    <t>265 亞太研究英語博士學位學程</t>
+  </si>
+  <si>
+    <t>921 行政管理碩士學程</t>
+  </si>
+  <si>
+    <t>923 地政學系碩士在職專班</t>
+  </si>
+  <si>
+    <t>926 亞太研究英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>266 應用經濟與社會發展英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>267 土地政策與環境規劃碩士原住民專班</t>
+  </si>
+  <si>
+    <t>600 法學院</t>
+  </si>
+  <si>
+    <t>600 法學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>13.69%</t>
+  </si>
+  <si>
+    <t>24.00 /14.55%</t>
+  </si>
+  <si>
+    <t>24.00 /13.64%</t>
+  </si>
+  <si>
+    <t>24.00 /12.97%</t>
+  </si>
+  <si>
+    <t>601 法律學系</t>
+  </si>
+  <si>
+    <t>14.55%</t>
+  </si>
+  <si>
+    <t>13.64%</t>
+  </si>
+  <si>
+    <t>12.97%</t>
+  </si>
+  <si>
+    <t>652 法律科際整合研究所</t>
+  </si>
+  <si>
+    <t>961 法學院碩士在職專班</t>
+  </si>
+  <si>
+    <t>300 商學院</t>
+  </si>
+  <si>
+    <t>300 商學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>11.09%</t>
+  </si>
+  <si>
+    <t>84.00 /11.02%</t>
+  </si>
+  <si>
+    <t>85.00 /8.51%</t>
+  </si>
+  <si>
+    <t>84.00 /16.15%</t>
+  </si>
+  <si>
+    <t>301 國際經營與貿易學系</t>
+  </si>
+  <si>
+    <t>12.20%</t>
+  </si>
+  <si>
+    <t>12.37%</t>
+  </si>
+  <si>
+    <t>15.38%</t>
+  </si>
+  <si>
+    <t>302 金融學系</t>
+  </si>
+  <si>
+    <t>6.14%</t>
+  </si>
+  <si>
+    <t>5.80%</t>
+  </si>
+  <si>
+    <t>4.76%</t>
+  </si>
+  <si>
+    <t>10.0%</t>
+  </si>
+  <si>
+    <t>303 會計學系</t>
+  </si>
+  <si>
+    <t>18.91%</t>
+  </si>
+  <si>
+    <t>19.74%</t>
+  </si>
+  <si>
+    <t>14.56%</t>
+  </si>
+  <si>
+    <t>25.42%</t>
+  </si>
+  <si>
+    <t>304 統計學系</t>
+  </si>
+  <si>
+    <t>8.89%</t>
+  </si>
+  <si>
+    <t>6.40%</t>
+  </si>
+  <si>
+    <t>305 企業管理學系</t>
+  </si>
+  <si>
+    <t>15.98%</t>
+  </si>
+  <si>
+    <t>16.46%</t>
+  </si>
+  <si>
+    <t>12.04%</t>
+  </si>
+  <si>
+    <t>22.81%</t>
+  </si>
+  <si>
+    <t>306 資訊管理學系</t>
+  </si>
+  <si>
+    <t>12.54%</t>
+  </si>
+  <si>
+    <t>12.15%</t>
+  </si>
+  <si>
+    <t>9.49%</t>
+  </si>
+  <si>
+    <t>19.40%</t>
+  </si>
+  <si>
+    <t>307 財務管理學系</t>
+  </si>
+  <si>
+    <t>7.98%</t>
+  </si>
+  <si>
+    <t>8.14%</t>
+  </si>
+  <si>
+    <t>6.60%</t>
+  </si>
+  <si>
+    <t>9.86%</t>
+  </si>
+  <si>
+    <t>308 風險管理與保險學系</t>
+  </si>
+  <si>
+    <t>11.11%</t>
+  </si>
+  <si>
+    <t>7.21%</t>
+  </si>
+  <si>
+    <t>11.43%</t>
+  </si>
+  <si>
+    <t>364 科技管理與智慧財產研究所</t>
+  </si>
+  <si>
+    <t>933 國際經營管理英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>932 經營管理碩士學程</t>
+  </si>
+  <si>
+    <t>363 企業管理研究所(MBA學位學程)</t>
+  </si>
+  <si>
+    <t>500 外國語文學院</t>
+  </si>
+  <si>
+    <t>500 外國語文學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>6.22%</t>
+  </si>
+  <si>
+    <t>55.00 /5.46%</t>
+  </si>
+  <si>
+    <t>45.00 /6.90%</t>
+  </si>
+  <si>
+    <t>52.00 /6.63%</t>
+  </si>
+  <si>
+    <t>501 英國語文學系</t>
+  </si>
+  <si>
+    <t>13.24%</t>
+  </si>
+  <si>
+    <t>10.47%</t>
+  </si>
+  <si>
+    <t>16.95%</t>
+  </si>
+  <si>
+    <t>13.51%</t>
+  </si>
+  <si>
+    <t>502 阿拉伯語文學系</t>
+  </si>
+  <si>
+    <t>9.55%</t>
+  </si>
+  <si>
+    <t>8.75%</t>
+  </si>
+  <si>
+    <t>7.69%</t>
+  </si>
+  <si>
+    <t>11.86%</t>
+  </si>
+  <si>
+    <t>504 斯拉夫語文學系</t>
+  </si>
+  <si>
+    <t>11.34%</t>
+  </si>
+  <si>
+    <t>9.89%</t>
+  </si>
+  <si>
+    <t>14.06%</t>
+  </si>
+  <si>
+    <t>10.84%</t>
+  </si>
+  <si>
+    <t>506 日本語文學系</t>
+  </si>
+  <si>
+    <t>5.24%</t>
+  </si>
+  <si>
+    <t>4.90%</t>
+  </si>
+  <si>
+    <t>5.68%</t>
+  </si>
+  <si>
+    <t>5.21%</t>
+  </si>
+  <si>
+    <t>507 韓國語文學系</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>8.57%</t>
+  </si>
+  <si>
+    <t>8.62%</t>
+  </si>
+  <si>
+    <t>508 土耳其語文學系</t>
+  </si>
+  <si>
+    <t>7.91%</t>
+  </si>
+  <si>
+    <t>8.47%</t>
+  </si>
+  <si>
+    <t>7.58%</t>
+  </si>
+  <si>
+    <t>555 語言學研究所</t>
+  </si>
+  <si>
+    <t>509 歐洲語文學系</t>
+  </si>
+  <si>
+    <t>2.93%</t>
+  </si>
+  <si>
+    <t>2.53%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>2.96%</t>
+  </si>
+  <si>
+    <t>951 英國語文學系英語教學碩士在職專班</t>
+  </si>
+  <si>
+    <t>560 中東與中亞研究碩士學位學程</t>
+  </si>
+  <si>
+    <t>510 東南亞語言與文化學士學位學程</t>
+  </si>
+  <si>
+    <t>4.37%</t>
+  </si>
+  <si>
+    <t>4.58%</t>
+  </si>
+  <si>
+    <t>3.70%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>400 傳播學院</t>
+  </si>
+  <si>
+    <t>400 傳播學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>20.30%</t>
+  </si>
+  <si>
+    <t>36.00 /17.56%</t>
+  </si>
+  <si>
+    <t>36.00 /23.23%</t>
+  </si>
+  <si>
+    <t>36.00 /20.93%</t>
+  </si>
+  <si>
+    <t>401 新聞學系</t>
+  </si>
+  <si>
+    <t>402 廣告學系</t>
+  </si>
+  <si>
+    <t>403 廣播電視學系</t>
+  </si>
+  <si>
+    <t>405 傳播學院大一大二不分系</t>
+  </si>
+  <si>
+    <t>17.56%</t>
+  </si>
+  <si>
+    <t>23.23%</t>
+  </si>
+  <si>
+    <t>20.93%</t>
+  </si>
+  <si>
+    <t>461 國際傳播英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>941 傳播學院碩士在職專班</t>
+  </si>
+  <si>
+    <t>462 數位內容碩士學位學程</t>
+  </si>
+  <si>
+    <t>463 傳播學院博士班</t>
+  </si>
+  <si>
+    <t>464 傳播學院傳播碩士學位學程</t>
+  </si>
+  <si>
+    <t>800 國際事務學院</t>
+  </si>
+  <si>
+    <t>800 國際事務學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>9.00 /8.65%</t>
+  </si>
+  <si>
+    <t>9.00 /14.29%</t>
+  </si>
+  <si>
+    <t>9.00 /12.68%</t>
+  </si>
+  <si>
+    <t>203 外交學系</t>
+  </si>
+  <si>
+    <t>8.65%</t>
+  </si>
+  <si>
+    <t>12.68%</t>
+  </si>
+  <si>
+    <t>260 東亞研究所</t>
+  </si>
+  <si>
+    <t>263 俄羅斯研究所</t>
+  </si>
+  <si>
+    <t>861 日本研究碩士學位學程</t>
+  </si>
+  <si>
+    <t>922 外交學系戰略與國際事務碩士在職專班</t>
+  </si>
+  <si>
+    <t>981 國家安全與大陸研究碩士在職專班</t>
+  </si>
+  <si>
+    <t>863 日本研究博士學位學程</t>
+  </si>
+  <si>
+    <t>862 國際研究英語碩士學位學程</t>
+  </si>
+  <si>
+    <t>900 教育學院</t>
+  </si>
+  <si>
+    <t>900 教育學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>5.91%</t>
+  </si>
+  <si>
+    <t>8.00 /6.61%</t>
+  </si>
+  <si>
+    <t>8.00 /5.76%</t>
+  </si>
+  <si>
+    <t>8.00 /5.48%</t>
+  </si>
+  <si>
+    <t>102 教育學系</t>
+  </si>
+  <si>
+    <t>6.61%</t>
+  </si>
+  <si>
+    <t>5.76%</t>
+  </si>
+  <si>
+    <t>5.48%</t>
+  </si>
+  <si>
+    <t>157 幼兒教育研究所</t>
+  </si>
+  <si>
+    <t>171 教育行政與政策研究所</t>
+  </si>
+  <si>
+    <t>172 輔導與諮商碩士學位學程</t>
+  </si>
+  <si>
+    <t>911 學校行政碩士在職專班</t>
+  </si>
+  <si>
+    <t>Z23 創新國際學院</t>
+  </si>
+  <si>
+    <t>Z23 創新國際學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>1.89%</t>
+  </si>
+  <si>
+    <t>1.00 /1.89%</t>
+  </si>
+  <si>
+    <t>ZU1 創新國際學院學士班</t>
+  </si>
+  <si>
+    <t>ZM1 全球傳播與創新科技碩士學位學程</t>
+  </si>
+  <si>
+    <t>ZA0 資訊學院</t>
+  </si>
+  <si>
+    <t>ZA0 資訊學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>7.87%</t>
+  </si>
+  <si>
+    <t>7.00 /7.87%</t>
+  </si>
+  <si>
+    <t>703 資訊科學系</t>
+  </si>
+  <si>
+    <t>11.68%</t>
+  </si>
+  <si>
+    <t>12.70%</t>
+  </si>
+  <si>
+    <t>17.78%</t>
+  </si>
+  <si>
+    <t>971 資訊科學系碩士在職專班</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,6 +880,53 @@
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color indexed="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="10"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,14 +946,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{99C2C595-D415-4281-A818-07BDA0902305}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -343,11 +1240,2167 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446C712E-2D45-4034-A650-77E491408AE9}">
+  <sheetPr codeName="工作表2"/>
+  <dimension ref="A2:F113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="2" customWidth="1"/>
+    <col min="3" max="6" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7" max="256" width="9.140625" style="2"/>
+    <col min="257" max="257" width="19.5703125" style="2" customWidth="1"/>
+    <col min="258" max="258" width="58.5703125" style="2" customWidth="1"/>
+    <col min="259" max="262" width="31.28515625" style="2" customWidth="1"/>
+    <col min="263" max="512" width="9.140625" style="2"/>
+    <col min="513" max="513" width="19.5703125" style="2" customWidth="1"/>
+    <col min="514" max="514" width="58.5703125" style="2" customWidth="1"/>
+    <col min="515" max="518" width="31.28515625" style="2" customWidth="1"/>
+    <col min="519" max="768" width="9.140625" style="2"/>
+    <col min="769" max="769" width="19.5703125" style="2" customWidth="1"/>
+    <col min="770" max="770" width="58.5703125" style="2" customWidth="1"/>
+    <col min="771" max="774" width="31.28515625" style="2" customWidth="1"/>
+    <col min="775" max="1024" width="9.140625" style="2"/>
+    <col min="1025" max="1025" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1026" max="1026" width="58.5703125" style="2" customWidth="1"/>
+    <col min="1027" max="1030" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1031" max="1280" width="9.140625" style="2"/>
+    <col min="1281" max="1281" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1282" max="1282" width="58.5703125" style="2" customWidth="1"/>
+    <col min="1283" max="1286" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1287" max="1536" width="9.140625" style="2"/>
+    <col min="1537" max="1537" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1538" max="1538" width="58.5703125" style="2" customWidth="1"/>
+    <col min="1539" max="1542" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1543" max="1792" width="9.140625" style="2"/>
+    <col min="1793" max="1793" width="19.5703125" style="2" customWidth="1"/>
+    <col min="1794" max="1794" width="58.5703125" style="2" customWidth="1"/>
+    <col min="1795" max="1798" width="31.28515625" style="2" customWidth="1"/>
+    <col min="1799" max="2048" width="9.140625" style="2"/>
+    <col min="2049" max="2049" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2050" max="2050" width="58.5703125" style="2" customWidth="1"/>
+    <col min="2051" max="2054" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2055" max="2304" width="9.140625" style="2"/>
+    <col min="2305" max="2305" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2306" max="2306" width="58.5703125" style="2" customWidth="1"/>
+    <col min="2307" max="2310" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2311" max="2560" width="9.140625" style="2"/>
+    <col min="2561" max="2561" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2562" max="2562" width="58.5703125" style="2" customWidth="1"/>
+    <col min="2563" max="2566" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2567" max="2816" width="9.140625" style="2"/>
+    <col min="2817" max="2817" width="19.5703125" style="2" customWidth="1"/>
+    <col min="2818" max="2818" width="58.5703125" style="2" customWidth="1"/>
+    <col min="2819" max="2822" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2823" max="3072" width="9.140625" style="2"/>
+    <col min="3073" max="3073" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3074" max="3074" width="58.5703125" style="2" customWidth="1"/>
+    <col min="3075" max="3078" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3079" max="3328" width="9.140625" style="2"/>
+    <col min="3329" max="3329" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3330" max="3330" width="58.5703125" style="2" customWidth="1"/>
+    <col min="3331" max="3334" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3335" max="3584" width="9.140625" style="2"/>
+    <col min="3585" max="3585" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3586" max="3586" width="58.5703125" style="2" customWidth="1"/>
+    <col min="3587" max="3590" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3591" max="3840" width="9.140625" style="2"/>
+    <col min="3841" max="3841" width="19.5703125" style="2" customWidth="1"/>
+    <col min="3842" max="3842" width="58.5703125" style="2" customWidth="1"/>
+    <col min="3843" max="3846" width="31.28515625" style="2" customWidth="1"/>
+    <col min="3847" max="4096" width="9.140625" style="2"/>
+    <col min="4097" max="4097" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4098" max="4098" width="58.5703125" style="2" customWidth="1"/>
+    <col min="4099" max="4102" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4103" max="4352" width="9.140625" style="2"/>
+    <col min="4353" max="4353" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4354" max="4354" width="58.5703125" style="2" customWidth="1"/>
+    <col min="4355" max="4358" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4359" max="4608" width="9.140625" style="2"/>
+    <col min="4609" max="4609" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4610" max="4610" width="58.5703125" style="2" customWidth="1"/>
+    <col min="4611" max="4614" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4615" max="4864" width="9.140625" style="2"/>
+    <col min="4865" max="4865" width="19.5703125" style="2" customWidth="1"/>
+    <col min="4866" max="4866" width="58.5703125" style="2" customWidth="1"/>
+    <col min="4867" max="4870" width="31.28515625" style="2" customWidth="1"/>
+    <col min="4871" max="5120" width="9.140625" style="2"/>
+    <col min="5121" max="5121" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5122" max="5122" width="58.5703125" style="2" customWidth="1"/>
+    <col min="5123" max="5126" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5127" max="5376" width="9.140625" style="2"/>
+    <col min="5377" max="5377" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5378" max="5378" width="58.5703125" style="2" customWidth="1"/>
+    <col min="5379" max="5382" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5383" max="5632" width="9.140625" style="2"/>
+    <col min="5633" max="5633" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5634" max="5634" width="58.5703125" style="2" customWidth="1"/>
+    <col min="5635" max="5638" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5639" max="5888" width="9.140625" style="2"/>
+    <col min="5889" max="5889" width="19.5703125" style="2" customWidth="1"/>
+    <col min="5890" max="5890" width="58.5703125" style="2" customWidth="1"/>
+    <col min="5891" max="5894" width="31.28515625" style="2" customWidth="1"/>
+    <col min="5895" max="6144" width="9.140625" style="2"/>
+    <col min="6145" max="6145" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6146" max="6146" width="58.5703125" style="2" customWidth="1"/>
+    <col min="6147" max="6150" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6151" max="6400" width="9.140625" style="2"/>
+    <col min="6401" max="6401" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6402" max="6402" width="58.5703125" style="2" customWidth="1"/>
+    <col min="6403" max="6406" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6407" max="6656" width="9.140625" style="2"/>
+    <col min="6657" max="6657" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6658" max="6658" width="58.5703125" style="2" customWidth="1"/>
+    <col min="6659" max="6662" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6663" max="6912" width="9.140625" style="2"/>
+    <col min="6913" max="6913" width="19.5703125" style="2" customWidth="1"/>
+    <col min="6914" max="6914" width="58.5703125" style="2" customWidth="1"/>
+    <col min="6915" max="6918" width="31.28515625" style="2" customWidth="1"/>
+    <col min="6919" max="7168" width="9.140625" style="2"/>
+    <col min="7169" max="7169" width="19.5703125" style="2" customWidth="1"/>
+    <col min="7170" max="7170" width="58.5703125" style="2" customWidth="1"/>
+    <col min="7171" max="7174" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7175" max="7424" width="9.140625" style="2"/>
+    <col min="7425" max="7425" width="19.5703125" style="2" customWidth="1"/>
+    <col min="7426" max="7426" width="58.5703125" style="2" customWidth="1"/>
+    <col min="7427" max="7430" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7431" max="7680" width="9.140625" style="2"/>
+    <col min="7681" max="7681" width="19.5703125" style="2" customWidth="1"/>
+    <col min="7682" max="7682" width="58.5703125" style="2" customWidth="1"/>
+    <col min="7683" max="7686" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7687" max="7936" width="9.140625" style="2"/>
+    <col min="7937" max="7937" width="19.5703125" style="2" customWidth="1"/>
+    <col min="7938" max="7938" width="58.5703125" style="2" customWidth="1"/>
+    <col min="7939" max="7942" width="31.28515625" style="2" customWidth="1"/>
+    <col min="7943" max="8192" width="9.140625" style="2"/>
+    <col min="8193" max="8193" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8194" max="8194" width="58.5703125" style="2" customWidth="1"/>
+    <col min="8195" max="8198" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8199" max="8448" width="9.140625" style="2"/>
+    <col min="8449" max="8449" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8450" max="8450" width="58.5703125" style="2" customWidth="1"/>
+    <col min="8451" max="8454" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8455" max="8704" width="9.140625" style="2"/>
+    <col min="8705" max="8705" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8706" max="8706" width="58.5703125" style="2" customWidth="1"/>
+    <col min="8707" max="8710" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8711" max="8960" width="9.140625" style="2"/>
+    <col min="8961" max="8961" width="19.5703125" style="2" customWidth="1"/>
+    <col min="8962" max="8962" width="58.5703125" style="2" customWidth="1"/>
+    <col min="8963" max="8966" width="31.28515625" style="2" customWidth="1"/>
+    <col min="8967" max="9216" width="9.140625" style="2"/>
+    <col min="9217" max="9217" width="19.5703125" style="2" customWidth="1"/>
+    <col min="9218" max="9218" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9219" max="9222" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9223" max="9472" width="9.140625" style="2"/>
+    <col min="9473" max="9473" width="19.5703125" style="2" customWidth="1"/>
+    <col min="9474" max="9474" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9475" max="9478" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9479" max="9728" width="9.140625" style="2"/>
+    <col min="9729" max="9729" width="19.5703125" style="2" customWidth="1"/>
+    <col min="9730" max="9730" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9731" max="9734" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9735" max="9984" width="9.140625" style="2"/>
+    <col min="9985" max="9985" width="19.5703125" style="2" customWidth="1"/>
+    <col min="9986" max="9986" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9987" max="9990" width="31.28515625" style="2" customWidth="1"/>
+    <col min="9991" max="10240" width="9.140625" style="2"/>
+    <col min="10241" max="10241" width="19.5703125" style="2" customWidth="1"/>
+    <col min="10242" max="10242" width="58.5703125" style="2" customWidth="1"/>
+    <col min="10243" max="10246" width="31.28515625" style="2" customWidth="1"/>
+    <col min="10247" max="10496" width="9.140625" style="2"/>
+    <col min="10497" max="10497" width="19.5703125" style="2" customWidth="1"/>
+    <col min="10498" max="10498" width="58.5703125" style="2" customWidth="1"/>
+    <col min="10499" max="10502" width="31.28515625" style="2" customWidth="1"/>
+    <col min="10503" max="10752" width="9.140625" style="2"/>
+    <col min="10753" max="10753" width="19.5703125" style="2" customWidth="1"/>
+    <col min="10754" max="10754" width="58.5703125" style="2" customWidth="1"/>
+    <col min="10755" max="10758" width="31.28515625" style="2" customWidth="1"/>
+    <col min="10759" max="11008" width="9.140625" style="2"/>
+    <col min="11009" max="11009" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11010" max="11010" width="58.5703125" style="2" customWidth="1"/>
+    <col min="11011" max="11014" width="31.28515625" style="2" customWidth="1"/>
+    <col min="11015" max="11264" width="9.140625" style="2"/>
+    <col min="11265" max="11265" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11266" max="11266" width="58.5703125" style="2" customWidth="1"/>
+    <col min="11267" max="11270" width="31.28515625" style="2" customWidth="1"/>
+    <col min="11271" max="11520" width="9.140625" style="2"/>
+    <col min="11521" max="11521" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11522" max="11522" width="58.5703125" style="2" customWidth="1"/>
+    <col min="11523" max="11526" width="31.28515625" style="2" customWidth="1"/>
+    <col min="11527" max="11776" width="9.140625" style="2"/>
+    <col min="11777" max="11777" width="19.5703125" style="2" customWidth="1"/>
+    <col min="11778" max="11778" width="58.5703125" style="2" customWidth="1"/>
+    <col min="11779" max="11782" width="31.28515625" style="2" customWidth="1"/>
+    <col min="11783" max="12032" width="9.140625" style="2"/>
+    <col min="12033" max="12033" width="19.5703125" style="2" customWidth="1"/>
+    <col min="12034" max="12034" width="58.5703125" style="2" customWidth="1"/>
+    <col min="12035" max="12038" width="31.28515625" style="2" customWidth="1"/>
+    <col min="12039" max="12288" width="9.140625" style="2"/>
+    <col min="12289" max="12289" width="19.5703125" style="2" customWidth="1"/>
+    <col min="12290" max="12290" width="58.5703125" style="2" customWidth="1"/>
+    <col min="12291" max="12294" width="31.28515625" style="2" customWidth="1"/>
+    <col min="12295" max="12544" width="9.140625" style="2"/>
+    <col min="12545" max="12545" width="19.5703125" style="2" customWidth="1"/>
+    <col min="12546" max="12546" width="58.5703125" style="2" customWidth="1"/>
+    <col min="12547" max="12550" width="31.28515625" style="2" customWidth="1"/>
+    <col min="12551" max="12800" width="9.140625" style="2"/>
+    <col min="12801" max="12801" width="19.5703125" style="2" customWidth="1"/>
+    <col min="12802" max="12802" width="58.5703125" style="2" customWidth="1"/>
+    <col min="12803" max="12806" width="31.28515625" style="2" customWidth="1"/>
+    <col min="12807" max="13056" width="9.140625" style="2"/>
+    <col min="13057" max="13057" width="19.5703125" style="2" customWidth="1"/>
+    <col min="13058" max="13058" width="58.5703125" style="2" customWidth="1"/>
+    <col min="13059" max="13062" width="31.28515625" style="2" customWidth="1"/>
+    <col min="13063" max="13312" width="9.140625" style="2"/>
+    <col min="13313" max="13313" width="19.5703125" style="2" customWidth="1"/>
+    <col min="13314" max="13314" width="58.5703125" style="2" customWidth="1"/>
+    <col min="13315" max="13318" width="31.28515625" style="2" customWidth="1"/>
+    <col min="13319" max="13568" width="9.140625" style="2"/>
+    <col min="13569" max="13569" width="19.5703125" style="2" customWidth="1"/>
+    <col min="13570" max="13570" width="58.5703125" style="2" customWidth="1"/>
+    <col min="13571" max="13574" width="31.28515625" style="2" customWidth="1"/>
+    <col min="13575" max="13824" width="9.140625" style="2"/>
+    <col min="13825" max="13825" width="19.5703125" style="2" customWidth="1"/>
+    <col min="13826" max="13826" width="58.5703125" style="2" customWidth="1"/>
+    <col min="13827" max="13830" width="31.28515625" style="2" customWidth="1"/>
+    <col min="13831" max="14080" width="9.140625" style="2"/>
+    <col min="14081" max="14081" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14082" max="14082" width="58.5703125" style="2" customWidth="1"/>
+    <col min="14083" max="14086" width="31.28515625" style="2" customWidth="1"/>
+    <col min="14087" max="14336" width="9.140625" style="2"/>
+    <col min="14337" max="14337" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14338" max="14338" width="58.5703125" style="2" customWidth="1"/>
+    <col min="14339" max="14342" width="31.28515625" style="2" customWidth="1"/>
+    <col min="14343" max="14592" width="9.140625" style="2"/>
+    <col min="14593" max="14593" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14594" max="14594" width="58.5703125" style="2" customWidth="1"/>
+    <col min="14595" max="14598" width="31.28515625" style="2" customWidth="1"/>
+    <col min="14599" max="14848" width="9.140625" style="2"/>
+    <col min="14849" max="14849" width="19.5703125" style="2" customWidth="1"/>
+    <col min="14850" max="14850" width="58.5703125" style="2" customWidth="1"/>
+    <col min="14851" max="14854" width="31.28515625" style="2" customWidth="1"/>
+    <col min="14855" max="15104" width="9.140625" style="2"/>
+    <col min="15105" max="15105" width="19.5703125" style="2" customWidth="1"/>
+    <col min="15106" max="15106" width="58.5703125" style="2" customWidth="1"/>
+    <col min="15107" max="15110" width="31.28515625" style="2" customWidth="1"/>
+    <col min="15111" max="15360" width="9.140625" style="2"/>
+    <col min="15361" max="15361" width="19.5703125" style="2" customWidth="1"/>
+    <col min="15362" max="15362" width="58.5703125" style="2" customWidth="1"/>
+    <col min="15363" max="15366" width="31.28515625" style="2" customWidth="1"/>
+    <col min="15367" max="15616" width="9.140625" style="2"/>
+    <col min="15617" max="15617" width="19.5703125" style="2" customWidth="1"/>
+    <col min="15618" max="15618" width="58.5703125" style="2" customWidth="1"/>
+    <col min="15619" max="15622" width="31.28515625" style="2" customWidth="1"/>
+    <col min="15623" max="15872" width="9.140625" style="2"/>
+    <col min="15873" max="15873" width="19.5703125" style="2" customWidth="1"/>
+    <col min="15874" max="15874" width="58.5703125" style="2" customWidth="1"/>
+    <col min="15875" max="15878" width="31.28515625" style="2" customWidth="1"/>
+    <col min="15879" max="16128" width="9.140625" style="2"/>
+    <col min="16129" max="16129" width="19.5703125" style="2" customWidth="1"/>
+    <col min="16130" max="16130" width="58.5703125" style="2" customWidth="1"/>
+    <col min="16131" max="16134" width="31.28515625" style="2" customWidth="1"/>
+    <col min="16135" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B84" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B85" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B103" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B104" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B111" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/testfiles/origin-data-rearrangement.xlsx
+++ b/testfiles/origin-data-rearrangement.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\testfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FD85D8-BD80-41BA-9219-D23C6432DF25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F2E811-356A-4FB2-83B3-8BCED878A4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="近三年比較" sheetId="4" r:id="rId1"/>
-    <sheet name="1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1892,7 +1891,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7096,12 +7095,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="L7:N7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -7109,20 +7108,4 @@
   <pageSetup paperSize="8" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>